--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>97.87</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>70.60</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.30</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,628 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1465,4 +1466,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1474,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,17 +1486,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1505,14 +1526,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.21</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1521,14 +1564,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.35</v>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1537,14 +1602,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.5</v>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1553,13 +1640,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>870008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>872014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1759,7 +1760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,17 +1771,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1790,14 +1811,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.34</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1806,14 +1849,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.21</v>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1822,14 +1887,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.35</v>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1838,14 +1925,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.5</v>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1854,13 +1963,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2131,17 +2132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.21</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2167,14 +2210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.34</v>
       </c>
     </row>
     <row r="4">
@@ -2183,14 +2248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.21</v>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2199,14 +2286,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.35</v>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2215,14 +2324,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.5</v>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2231,13 +2362,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>5.44</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.21</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.34</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.21</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.35</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5.5</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.12</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +2094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2303,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2397,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2605,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600018-上港集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>5.44</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.21</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.34</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>6.21</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5.35</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>5.5</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.12</v>
       </c>
     </row>
@@ -616,7 +633,725 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>970007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,7 +2185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1810,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2094,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2718,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2812,7 +3547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3018,98 +3753,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.1183</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>